--- a/Output/VO2maxQC/Data.VO2MAXQC_poole.xlsx
+++ b/Output/VO2maxQC/Data.VO2MAXQC_poole.xlsx
@@ -10226,19 +10226,13 @@
         <v>28.55333333333333</v>
       </c>
       <c r="D117">
-        <v>28.7</v>
-      </c>
-      <c r="E117" t="b">
-        <v>1</v>
+        <v>28.55</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
       </c>
-      <c r="G117">
-        <v>16</v>
-      </c>
       <c r="H117">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I117">
         <v>2158.526419533333</v>
@@ -10273,17 +10267,11 @@
       <c r="V117" t="b">
         <v>0</v>
       </c>
-      <c r="W117">
-        <v>3</v>
-      </c>
-      <c r="X117">
-        <v>16</v>
-      </c>
       <c r="Y117" s="2">
-        <v>44844</v>
+        <v>44858</v>
       </c>
       <c r="Z117">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="AA117" t="b">
         <v>1</v>
